--- a/biology/Botanique/Cardamine/Cardamine.xlsx
+++ b/biology/Botanique/Cardamine/Cardamine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cardamine est un genre de plantes dicotylédones de la famille des Brassicaceae (ou Crucifères), à distribution quasi-cosmopolite. Il comprend plus de 200 espèces acceptées, ce qui en fait l'un des principaux genres de la famille des Brassicaceae.
 Certaines espèces de ce genre étaient autrefois placées dans un genre nommé Dentaria, les dentaires, mais sont désormais incluses dans le genre Cardamine.
@@ -513,9 +525,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">« Cardamine » est la francisation du latin cardamina qui désignait en latin et en grec (kardaminê, kardamon ou kardamis) un cresson, sans doute le cresson alénois[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">« Cardamine » est la francisation du latin cardamina qui désignait en latin et en grec (kardaminê, kardamon ou kardamis) un cresson, sans doute le cresson alénois.
 </t>
         </is>
       </c>
@@ -546,13 +560,14 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-Les espèces du genre cardamine sont des plantes herbacées, annuelles, bisannuelles ou vivaces, à racines souvent rhizomateuses et parfois tubérisées, pubescentes à poils simples ; tiges simples ou ramifiées.
-Les feuilles sont simples, trifoliolées ou pennées, le plus souvent disposées en rosette de feuilles basales. Les feuilles caulinaires sont alternes, parfois opposées ou verticillées World Flora Online (WFO)       (13 février 2022)[3].
-Appareil reproducteur
-Les fleurs, blanches ou rose plus ou moins violacé, parfois jaunes, sont groupées en racèmes le plus souvent, plus rarement en corymbes. Comme chez toutes les Crucifères, elles comportent 4 sépales oblongs à ovales et 4 pétales obovales, onguiculés à la base ou manquants. Sépales et pétales sont tous libres. L'androcée comprend 6 étamines (parfois moins), à anthères oblongues, obtuses au sommet. Le pistil simple se compose d'un ovaire supère subsessile, cylindrique surmonté d'un style court avec un stigmate entier, plus ou moins bilobéWorld Flora Online (WFO)       (13 février 2022)[3].
-Les fruits sont des siliques déhiscentes, linéaires-oblongues et comprimées, à valves presque plates dépourvues de nervures, élastiques et s'enroulant en spirale de bas en haut à maturité,  à nervure médiane peu marquée, et à graines unisériées.
-Les graines, à testa lisse ou finement tuberculé, sont disposées sur 1 rang. L'embryon, à cotylédons plans, présente une radicule latéraleWorld Flora Online (WFO)       (13 février 2022)[3].
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces du genre cardamine sont des plantes herbacées, annuelles, bisannuelles ou vivaces, à racines souvent rhizomateuses et parfois tubérisées, pubescentes à poils simples ; tiges simples ou ramifiées.
+Les feuilles sont simples, trifoliolées ou pennées, le plus souvent disposées en rosette de feuilles basales. Les feuilles caulinaires sont alternes, parfois opposées ou verticillées World Flora Online (WFO)       (13 février 2022).
 </t>
         </is>
       </c>
@@ -578,13 +593,57 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Caractéristiques générales</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fleurs, blanches ou rose plus ou moins violacé, parfois jaunes, sont groupées en racèmes le plus souvent, plus rarement en corymbes. Comme chez toutes les Crucifères, elles comportent 4 sépales oblongs à ovales et 4 pétales obovales, onguiculés à la base ou manquants. Sépales et pétales sont tous libres. L'androcée comprend 6 étamines (parfois moins), à anthères oblongues, obtuses au sommet. Le pistil simple se compose d'un ovaire supère subsessile, cylindrique surmonté d'un style court avec un stigmate entier, plus ou moins bilobéWorld Flora Online (WFO)       (13 février 2022).
+Les fruits sont des siliques déhiscentes, linéaires-oblongues et comprimées, à valves presque plates dépourvues de nervures, élastiques et s'enroulant en spirale de bas en haut à maturité,  à nervure médiane peu marquée, et à graines unisériées.
+Les graines, à testa lisse ou finement tuberculé, sont disposées sur 1 rang. L'embryon, à cotylédons plans, présente une radicule latéraleWorld Flora Online (WFO)       (13 février 2022).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cardamine</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cardamine</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Liste d'espèces
-Selon NCBI  (13 février 2022)[4] :
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (13 février 2022) :
 Cardamine abchasica Govaerts
 Cardamine adriatica Jar.Kucera, Lihova &amp; Marhold
 Cardamine alalata Heenan, 2017
@@ -718,7 +777,43 @@
 Cardamine yunnanensis Franch.
 Cardamine × ferrarii Burnat
 Cardamine × insueta Urbanska-Worytkiewicz
-Espèces européennes
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cardamine</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cardamine</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Espèces européennes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Cardamine amara — Cardamine amère
 Cardamine asarifolia — Cardamine à feuilles d'asaret
 Cardamine barbaraeoides
@@ -755,72 +850,111 @@
 Cardamine trifolia — Cardamine à trois folioles
 Cardamine uliginosa
 Cardamine waldsteinii
-Espèces américaines
-Cardamine concatenata - Cardamine à feuilles découpées
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cardamine</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cardamine</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Espèces américaines</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Cardamine concatenata - Cardamine à feuilles découpées
 Cardamine diphylla - Cardamine carcajou
 Cardamine maxima</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Cardamine</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Cardamine</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les feuilles amères et piquantes (goût puissant dû aux glucosinolates des Brassicacées) de plusieurs espèces ont été consommées crues. Hachées, elles relèvent une salade composée, une salade de crudités, un simple sandwich ou peuvent accompagner des sauces et divers plats (pesto de cardamine). Elles peuvent être cuites en soupe ou en légume comme le cresson mais elles perdent leur saveur. Les fleurs, les inflorescences et les bourgeons également comestibles décorent les salades. En Europe, on a utilisé celles des espèces suivantes : la Cardamine des prés, amère, alpine, hérissée et la Cardamine à feuilles de réséda[5]. On peut broyer les graines pour en faire une « moutarde » moins forte que celle de la moutarde blanche[6].
-En Europe, une confusion entre les 37 espèces de Cardamine (dont 13 en France, 12 en Suisse et 5 en Belgique) est sans danger car ces espèces ne sont pas toxiques[7].
-Du fait de son huile essentielle, de très grandes quantités de cardamine sont irritantes (brûlures gastriques) et entraînent des troubles de la thyroïde (effet goitrogène comme les choux) en inhibant la fixation de l'iode, ce qui empêche la synthèse des hormones thyroïdiennes. Il est ainsi recommandé de ne pas en abuser pour éviter sa toxicité[7].
-Certaines espèces comme la Cardamine des prés sont toniques, stomachiques, expectorantes et antiscorbutiques, d'où l'utilisation des feuilles pour concocter des tisanes[8].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les feuilles amères et piquantes (goût puissant dû aux glucosinolates des Brassicacées) de plusieurs espèces ont été consommées crues. Hachées, elles relèvent une salade composée, une salade de crudités, un simple sandwich ou peuvent accompagner des sauces et divers plats (pesto de cardamine). Elles peuvent être cuites en soupe ou en légume comme le cresson mais elles perdent leur saveur. Les fleurs, les inflorescences et les bourgeons également comestibles décorent les salades. En Europe, on a utilisé celles des espèces suivantes : la Cardamine des prés, amère, alpine, hérissée et la Cardamine à feuilles de réséda. On peut broyer les graines pour en faire une « moutarde » moins forte que celle de la moutarde blanche.
+En Europe, une confusion entre les 37 espèces de Cardamine (dont 13 en France, 12 en Suisse et 5 en Belgique) est sans danger car ces espèces ne sont pas toxiques.
+Du fait de son huile essentielle, de très grandes quantités de cardamine sont irritantes (brûlures gastriques) et entraînent des troubles de la thyroïde (effet goitrogène comme les choux) en inhibant la fixation de l'iode, ce qui empêche la synthèse des hormones thyroïdiennes. Il est ainsi recommandé de ne pas en abuser pour éviter sa toxicité.
+Certaines espèces comme la Cardamine des prés sont toniques, stomachiques, expectorantes et antiscorbutiques, d'où l'utilisation des feuilles pour concocter des tisanes.
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Cardamine</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Cardamine</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">La chenille du papillon de jour (rhopalocère)  Aurore, Anthocharis cardamines (Pieridae) se nourrit de Cardamine.
 </t>
